--- a/www/IndicatorsPerCountry/Brazil_PoliticalCompetition_TerritorialRef_1960_2012_CCode_76.xlsx
+++ b/www/IndicatorsPerCountry/Brazil_PoliticalCompetition_TerritorialRef_1960_2012_CCode_76.xlsx
@@ -132,13 +132,13 @@
     <t>Vanhanen, Tatu (2015). Political Competition. http://hdl.handle.net/10622/4ZDPWP, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_4ZDPWP.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_4ZDPWP.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_4ZDPWP.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_4ZDPWP.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_4ZDPWP.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_4ZDPWP.bib</t>
   </si>
 </sst>
 </file>
